--- a/biology/Zoologie/Alopochen_mauritiana/Alopochen_mauritiana.xlsx
+++ b/biology/Zoologie/Alopochen_mauritiana/Alopochen_mauritiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alopochen mauritiana est une espèce d'oiseaux de la famille des Anseriformes autrefois endémique de l'île Maurice et aujourd'hui disparue.
 En 1681, les récits de voyage la signale comme abondante dans les bois. Elle est probablement très chassée car elle est décrite comme pas grande mais grasse et goûteuse. En 1693, l'espèce est devenue rare et en 1698, elle est signalée éteinte.
@@ -512,7 +524,9 @@
           <t>Informations complémentaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Endémisme à l'île Maurice
 Liste des espèces d'oiseaux disparues</t>
@@ -543,7 +557,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence Congrès ornithologique international : Alopochen mauritiana dans l'ordre Anseriformes
 (fr + en) Référence Avibase : Alopochen mauritiana (+ répartition) (consulté le 30 juin 2015)
